--- a/Extraction_notes.xlsx
+++ b/Extraction_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2475" documentId="13_ncr:1_{AA70412A-8EF2-9B43-917A-69BC30BED0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308BD45A-89C0-429B-BBD3-3C20FD312EF5}"/>
+  <xr:revisionPtr revIDLastSave="2476" documentId="13_ncr:1_{AA70412A-8EF2-9B43-917A-69BC30BED0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DEBF228-6FC0-4D18-94A4-1B3852AD1D50}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" firstSheet="65" activeTab="5" xr2:uid="{24B86F3F-7BB3-0B47-8099-E55ED2B453C5}"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" firstSheet="5" activeTab="11" xr2:uid="{24B86F3F-7BB3-0B47-8099-E55ED2B453C5}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralPrinciples" sheetId="5" r:id="rId1"/>
@@ -3015,15 +3015,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3046,7 +3046,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="0"/>
+          <a:off x="4048125" y="628650"/>
           <a:ext cx="7467600" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4713,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5F273-5B43-447C-8392-159B2EE7B356}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -15663,7 +15663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B092EC-375A-43DA-A9B9-E5298F5F59BA}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18028,7 +18028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5326DABF-E337-4CC0-B4CA-6A7F7056CF74}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -18818,7 +18818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E073934-5237-496C-BE77-54797A7F1F4C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
